--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andsh\eclipse-workspace\DataDrivenFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andsh\git\DDF\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E656C12B-1E64-4611-9157-9B92041AB8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19791D-B529-465D-8384-0489E116F822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="480" windowWidth="17490" windowHeight="15195" xr2:uid="{73115113-92F2-4D4C-9326-43F8AB63E8AD}"/>
+    <workbookView xWindow="7335" yWindow="480" windowWidth="17490" windowHeight="15195" activeTab="1" xr2:uid="{73115113-92F2-4D4C-9326-43F8AB63E8AD}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>firstname</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Roman Ponko</t>
+  </si>
+  <si>
+    <t>CAD</t>
   </si>
 </sst>
 </file>
@@ -402,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BB11B5-C6F9-450B-B738-C3ACD3F35F77}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -439,4 +452,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51785C50-77A8-4CA2-A9EA-2D21CFCBFF43}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>